--- a/data/pca/factorExposure/factorExposure_2010-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-27.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01661110897245892</v>
+        <v>-0.01713165479601711</v>
       </c>
       <c r="C2">
-        <v>-0.004011045840325002</v>
+        <v>-0.001129596829288836</v>
       </c>
       <c r="D2">
-        <v>0.006128689699274508</v>
+        <v>-0.007903481613067467</v>
       </c>
       <c r="E2">
-        <v>0.02274434677268394</v>
+        <v>-0.0004875327129122137</v>
       </c>
       <c r="F2">
-        <v>0.01459813666939945</v>
+        <v>0.01100648224438535</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1168046475078677</v>
+        <v>-0.09311206297855114</v>
       </c>
       <c r="C4">
-        <v>-0.0865773297031785</v>
+        <v>-0.01694190780519748</v>
       </c>
       <c r="D4">
-        <v>-0.01564635065616619</v>
+        <v>-0.08334453016512496</v>
       </c>
       <c r="E4">
-        <v>0.01446928669530724</v>
+        <v>0.03011316111806259</v>
       </c>
       <c r="F4">
-        <v>-0.003475659301144352</v>
+        <v>-0.0322403414124541</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1227791160808126</v>
+        <v>-0.1529084787415021</v>
       </c>
       <c r="C6">
-        <v>-0.03177300725375126</v>
+        <v>-0.0248065888612404</v>
       </c>
       <c r="D6">
-        <v>0.03782805472167949</v>
+        <v>0.02152645099708011</v>
       </c>
       <c r="E6">
-        <v>-0.04863106189337213</v>
+        <v>0.009531462876240644</v>
       </c>
       <c r="F6">
-        <v>0.006991132158607143</v>
+        <v>-0.04049671556090096</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07122116858256314</v>
+        <v>-0.05980687446538756</v>
       </c>
       <c r="C7">
-        <v>-0.08095063533178549</v>
+        <v>0.0003237609767074776</v>
       </c>
       <c r="D7">
-        <v>0.0147720778752081</v>
+        <v>-0.05191434706364558</v>
       </c>
       <c r="E7">
-        <v>0.03983679326688542</v>
+        <v>0.01512675556548547</v>
       </c>
       <c r="F7">
-        <v>0.02729689315529666</v>
+        <v>-0.05346782289140034</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0558085329436188</v>
+        <v>-0.05864410848832728</v>
       </c>
       <c r="C8">
-        <v>-0.05298420802599059</v>
+        <v>0.01274561271422892</v>
       </c>
       <c r="D8">
-        <v>-0.01628526850096854</v>
+        <v>-0.03064463790419928</v>
       </c>
       <c r="E8">
-        <v>-0.0227791201831458</v>
+        <v>0.0152665910907013</v>
       </c>
       <c r="F8">
-        <v>0.01509055782098116</v>
+        <v>0.02994670598895588</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08226430110898868</v>
+        <v>-0.07121494339643951</v>
       </c>
       <c r="C9">
-        <v>-0.0621505827892379</v>
+        <v>-0.01306076380596575</v>
       </c>
       <c r="D9">
-        <v>-0.01955863196701342</v>
+        <v>-0.08289383848170377</v>
       </c>
       <c r="E9">
-        <v>0.00623976702466556</v>
+        <v>0.02478724337666568</v>
       </c>
       <c r="F9">
-        <v>-0.01036233886406218</v>
+        <v>-0.05432185085916025</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.119271247431577</v>
+        <v>-0.09432896489530714</v>
       </c>
       <c r="C10">
-        <v>0.1574980734405098</v>
+        <v>-0.01677856516847422</v>
       </c>
       <c r="D10">
-        <v>0.02944920464255451</v>
+        <v>0.1715259250032413</v>
       </c>
       <c r="E10">
-        <v>0.03403356844441086</v>
+        <v>-0.03805089029682959</v>
       </c>
       <c r="F10">
-        <v>0.00128947677802095</v>
+        <v>0.05311543715720377</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07967413787106366</v>
+        <v>-0.08757304666086535</v>
       </c>
       <c r="C11">
-        <v>-0.07097798291089909</v>
+        <v>-0.01242869225303986</v>
       </c>
       <c r="D11">
-        <v>-0.03515266465750844</v>
+        <v>-0.1140492364885463</v>
       </c>
       <c r="E11">
-        <v>-0.006788150846744704</v>
+        <v>0.04821643773496555</v>
       </c>
       <c r="F11">
-        <v>-0.02612559061613054</v>
+        <v>-0.02112568257359661</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07370329266260719</v>
+        <v>-0.09271085629472076</v>
       </c>
       <c r="C12">
-        <v>-0.07267286455996792</v>
+        <v>-0.01029832681524361</v>
       </c>
       <c r="D12">
-        <v>-0.05698779252908983</v>
+        <v>-0.1214344715167776</v>
       </c>
       <c r="E12">
-        <v>0.01472165735405893</v>
+        <v>0.04778860865992023</v>
       </c>
       <c r="F12">
-        <v>0.01782532363447302</v>
+        <v>-0.02314574587967741</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03041167748551078</v>
+        <v>-0.04261672380257199</v>
       </c>
       <c r="C13">
-        <v>-0.03252632621313415</v>
+        <v>-0.003899842062074145</v>
       </c>
       <c r="D13">
-        <v>0.01359450633655521</v>
+        <v>-0.04818388127704653</v>
       </c>
       <c r="E13">
-        <v>0.01641188789445159</v>
+        <v>-0.01142662392384447</v>
       </c>
       <c r="F13">
-        <v>-0.004548004173105509</v>
+        <v>-0.01376288718190336</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04026182012979861</v>
+        <v>-0.0219869376239214</v>
       </c>
       <c r="C14">
-        <v>-0.03223473039576162</v>
+        <v>-0.0146188305766528</v>
       </c>
       <c r="D14">
-        <v>-0.02781209747688327</v>
+        <v>-0.03245483514189475</v>
       </c>
       <c r="E14">
-        <v>-0.003146824891987646</v>
+        <v>0.01902819468633841</v>
       </c>
       <c r="F14">
-        <v>0.003173963554725803</v>
+        <v>-0.01812740645932649</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01721018272213749</v>
+        <v>-0.03195884146467855</v>
       </c>
       <c r="C15">
-        <v>-0.01695508288173058</v>
+        <v>-0.005502780341295186</v>
       </c>
       <c r="D15">
-        <v>0.0570841733054893</v>
+        <v>-0.04519881680143282</v>
       </c>
       <c r="E15">
-        <v>0.0175814929721512</v>
+        <v>0.008848178296592926</v>
       </c>
       <c r="F15">
-        <v>-0.02748623896484552</v>
+        <v>-0.03185866812010112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08511781898367859</v>
+        <v>-0.07385977666893874</v>
       </c>
       <c r="C16">
-        <v>-0.07117665950660444</v>
+        <v>-0.003959231621292802</v>
       </c>
       <c r="D16">
-        <v>-0.05089286853696452</v>
+        <v>-0.116489327820226</v>
       </c>
       <c r="E16">
-        <v>-0.02131150759913231</v>
+        <v>0.06293931994667042</v>
       </c>
       <c r="F16">
-        <v>-0.003439426718245866</v>
+        <v>-0.03121873572909792</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02177034685705074</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003750258950987514</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02075739180864711</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01071006020221604</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02367710044554548</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04783690729838619</v>
+        <v>-0.06117681569455544</v>
       </c>
       <c r="C20">
-        <v>-0.04690417616902456</v>
+        <v>-0.001839289530394084</v>
       </c>
       <c r="D20">
-        <v>0.01480618339926124</v>
+        <v>-0.07409487639172538</v>
       </c>
       <c r="E20">
-        <v>0.03225453968768098</v>
+        <v>0.05550045778555594</v>
       </c>
       <c r="F20">
-        <v>0.005025344428859191</v>
+        <v>-0.02879348296992006</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02853633208880438</v>
+        <v>-0.03878875476367391</v>
       </c>
       <c r="C21">
-        <v>-0.01221589612891113</v>
+        <v>-0.00766335482307033</v>
       </c>
       <c r="D21">
-        <v>-0.0306291899555903</v>
+        <v>-0.03504676603134405</v>
       </c>
       <c r="E21">
-        <v>-0.00204087725785576</v>
+        <v>-0.008452368740086282</v>
       </c>
       <c r="F21">
-        <v>-0.03790690684236181</v>
+        <v>0.01965755235347145</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04067068801097643</v>
+        <v>-0.04181958096626373</v>
       </c>
       <c r="C22">
-        <v>-0.004137438811756135</v>
+        <v>-6.578937660078641e-05</v>
       </c>
       <c r="D22">
-        <v>0.6114872959229192</v>
+        <v>-0.003157540073840743</v>
       </c>
       <c r="E22">
-        <v>0.1448749486619917</v>
+        <v>0.02925275003869814</v>
       </c>
       <c r="F22">
-        <v>0.04433651012644468</v>
+        <v>0.009991938293752724</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04123947784619191</v>
+        <v>-0.04188101157018143</v>
       </c>
       <c r="C23">
-        <v>-0.005258319339115712</v>
+        <v>-9.063395154584044e-05</v>
       </c>
       <c r="D23">
-        <v>0.6140050383841502</v>
+        <v>-0.003278072629884441</v>
       </c>
       <c r="E23">
-        <v>0.14426171783819</v>
+        <v>0.02960150543948123</v>
       </c>
       <c r="F23">
-        <v>0.0458267129841803</v>
+        <v>0.009533671885118031</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08368018467661367</v>
+        <v>-0.08034901459230255</v>
       </c>
       <c r="C24">
-        <v>-0.07145871964254598</v>
+        <v>-0.004278143621809812</v>
       </c>
       <c r="D24">
-        <v>-0.04590683004259429</v>
+        <v>-0.1173145082382156</v>
       </c>
       <c r="E24">
-        <v>-0.003128868701188642</v>
+        <v>0.05074553652508023</v>
       </c>
       <c r="F24">
-        <v>-0.03947667370802444</v>
+        <v>-0.02405013737716465</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0879637802230836</v>
+        <v>-0.08501763884158098</v>
       </c>
       <c r="C25">
-        <v>-0.07279159904219656</v>
+        <v>-0.006287082253405512</v>
       </c>
       <c r="D25">
-        <v>-0.06026356808568425</v>
+        <v>-0.1057964434067778</v>
       </c>
       <c r="E25">
-        <v>0.009020171635766867</v>
+        <v>0.03386367429111047</v>
       </c>
       <c r="F25">
-        <v>-0.003865792531768889</v>
+        <v>-0.03130165687269845</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04096537677730463</v>
+        <v>-0.0554023737330504</v>
       </c>
       <c r="C26">
-        <v>0.005780444727250895</v>
+        <v>-0.01521852565968794</v>
       </c>
       <c r="D26">
-        <v>0.01163117151277445</v>
+        <v>-0.0357401294506261</v>
       </c>
       <c r="E26">
-        <v>-0.02271661876787088</v>
+        <v>0.02789915712508432</v>
       </c>
       <c r="F26">
-        <v>-0.01726028664830504</v>
+        <v>0.007797985060716493</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1426191559633591</v>
+        <v>-0.1423571487415448</v>
       </c>
       <c r="C28">
-        <v>0.2856081133263343</v>
+        <v>-0.01471159105409101</v>
       </c>
       <c r="D28">
-        <v>-0.007081334927441663</v>
+        <v>0.2674126693660873</v>
       </c>
       <c r="E28">
-        <v>-0.06362055706508696</v>
+        <v>-0.06842742884964344</v>
       </c>
       <c r="F28">
-        <v>0.04357538090033397</v>
+        <v>-0.03075768101729132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03511123125746282</v>
+        <v>-0.02697017490062398</v>
       </c>
       <c r="C29">
-        <v>-0.02989155443462657</v>
+        <v>-0.008824999063120705</v>
       </c>
       <c r="D29">
-        <v>-0.02890442187848776</v>
+        <v>-0.0311387084287219</v>
       </c>
       <c r="E29">
-        <v>0.0358626214233488</v>
+        <v>0.01190990623530102</v>
       </c>
       <c r="F29">
-        <v>0.0229979589466281</v>
+        <v>0.01258793412644242</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09848482808096924</v>
+        <v>-0.06362843454880752</v>
       </c>
       <c r="C30">
-        <v>-0.1015911797189827</v>
+        <v>-0.005781230884932218</v>
       </c>
       <c r="D30">
-        <v>-0.05484808356365997</v>
+        <v>-0.0824913934650085</v>
       </c>
       <c r="E30">
-        <v>-0.06686004425789098</v>
+        <v>0.02445672472602835</v>
       </c>
       <c r="F30">
-        <v>0.02748072155522885</v>
+        <v>-0.1074555934950349</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03007019192211736</v>
+        <v>-0.04847949030778281</v>
       </c>
       <c r="C31">
-        <v>-0.04478653770152366</v>
+        <v>-0.01514710875262513</v>
       </c>
       <c r="D31">
-        <v>-0.001482584714816906</v>
+        <v>-0.02790955725554428</v>
       </c>
       <c r="E31">
-        <v>0.02044076986027294</v>
+        <v>0.02731264790139113</v>
       </c>
       <c r="F31">
-        <v>0.002166844993119774</v>
+        <v>0.004037717882192374</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05363336117254414</v>
+        <v>-0.04787907076682128</v>
       </c>
       <c r="C32">
-        <v>-0.02407771328121414</v>
+        <v>-0.0003921802480506193</v>
       </c>
       <c r="D32">
-        <v>-0.04055809246862975</v>
+        <v>-0.03057880824444914</v>
       </c>
       <c r="E32">
-        <v>-0.05846431520522083</v>
+        <v>0.02969903108631754</v>
       </c>
       <c r="F32">
-        <v>-0.03831784900933903</v>
+        <v>-0.0007436778352210784</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09165851057056518</v>
+        <v>-0.09021706868216123</v>
       </c>
       <c r="C33">
-        <v>-0.0659309371329329</v>
+        <v>-0.009474355283277445</v>
       </c>
       <c r="D33">
-        <v>-0.02467818207447075</v>
+        <v>-0.09344833513441415</v>
       </c>
       <c r="E33">
-        <v>0.003880460585734691</v>
+        <v>0.04648414873891485</v>
       </c>
       <c r="F33">
-        <v>0.01376983953521643</v>
+        <v>-0.04213436649499389</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07348807480912795</v>
+        <v>-0.06823042222901884</v>
       </c>
       <c r="C34">
-        <v>-0.05370004756397868</v>
+        <v>-0.01246992008475502</v>
       </c>
       <c r="D34">
-        <v>-0.05132418181192609</v>
+        <v>-0.09794484348377894</v>
       </c>
       <c r="E34">
-        <v>-0.004270697331679624</v>
+        <v>0.03542886252359898</v>
       </c>
       <c r="F34">
-        <v>-0.019762625140337</v>
+        <v>-0.04364815757640331</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01480885692000171</v>
+        <v>-0.02444187504713538</v>
       </c>
       <c r="C35">
-        <v>-0.01766160816832873</v>
+        <v>-0.002567784585446239</v>
       </c>
       <c r="D35">
-        <v>-0.008369873132136309</v>
+        <v>-0.0114105818798053</v>
       </c>
       <c r="E35">
-        <v>0.01686219050767625</v>
+        <v>0.01140767290552872</v>
       </c>
       <c r="F35">
-        <v>0.02594616688026069</v>
+        <v>-0.009866785989448236</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02463908444195529</v>
+        <v>-0.02416587148531771</v>
       </c>
       <c r="C36">
-        <v>-0.01812127706157824</v>
+        <v>-0.007457478575838039</v>
       </c>
       <c r="D36">
-        <v>0.001191016211141002</v>
+        <v>-0.03802173010749571</v>
       </c>
       <c r="E36">
-        <v>-0.003798530110260002</v>
+        <v>0.01703345326647827</v>
       </c>
       <c r="F36">
-        <v>-0.00399647697785833</v>
+        <v>-0.01111024483277332</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.009310829820592633</v>
+        <v>-0.001656810969794499</v>
       </c>
       <c r="C38">
-        <v>-0.01558432441952313</v>
+        <v>-0.0002707748433814005</v>
       </c>
       <c r="D38">
-        <v>0.02272747428271641</v>
+        <v>-0.001250173779211934</v>
       </c>
       <c r="E38">
-        <v>0.03179119889785233</v>
+        <v>0.001534739097973321</v>
       </c>
       <c r="F38">
-        <v>0.02610113232626507</v>
+        <v>0.0006140548919185803</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1168905076123272</v>
+        <v>-0.1091212112320429</v>
       </c>
       <c r="C39">
-        <v>-0.1154190655033885</v>
+        <v>-0.01789812554877895</v>
       </c>
       <c r="D39">
-        <v>-0.1530548034847306</v>
+        <v>-0.1524262084374325</v>
       </c>
       <c r="E39">
-        <v>-0.01849360222067887</v>
+        <v>0.06075100059829672</v>
       </c>
       <c r="F39">
-        <v>0.08570302471630729</v>
+        <v>-0.03178062110723848</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0120087382290821</v>
+        <v>-0.03693923446676685</v>
       </c>
       <c r="C40">
-        <v>-0.0530230626168626</v>
+        <v>-0.007350144788187551</v>
       </c>
       <c r="D40">
-        <v>0.04011475159092592</v>
+        <v>-0.03136917799064458</v>
       </c>
       <c r="E40">
-        <v>0.05814265593094913</v>
+        <v>0.003334368461832206</v>
       </c>
       <c r="F40">
-        <v>-0.04480795200419891</v>
+        <v>0.01376068717400646</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02923458226701091</v>
+        <v>-0.02611436116778157</v>
       </c>
       <c r="C41">
-        <v>-0.01478615357423663</v>
+        <v>-0.006822751958861757</v>
       </c>
       <c r="D41">
-        <v>-0.01254269458075613</v>
+        <v>-0.01070866007167604</v>
       </c>
       <c r="E41">
-        <v>0.01058586413520477</v>
+        <v>0.0121846385108823</v>
       </c>
       <c r="F41">
-        <v>0.02078377996459297</v>
+        <v>0.00977903751190227</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03843876387007599</v>
+        <v>-0.04110753404572574</v>
       </c>
       <c r="C43">
-        <v>-0.01771662551765482</v>
+        <v>-0.006832297715513392</v>
       </c>
       <c r="D43">
-        <v>0.008912568186422186</v>
+        <v>-0.02027104456510802</v>
       </c>
       <c r="E43">
-        <v>-0.00043921714056507</v>
+        <v>0.02501980859440433</v>
       </c>
       <c r="F43">
-        <v>0.04847586033579531</v>
+        <v>0.01116466947169345</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1249704120478883</v>
+        <v>-0.07195669201133209</v>
       </c>
       <c r="C44">
-        <v>-0.1637054683386964</v>
+        <v>-0.02203352401488316</v>
       </c>
       <c r="D44">
-        <v>0.08023383552684513</v>
+        <v>-0.1009662279764595</v>
       </c>
       <c r="E44">
-        <v>0.112397877242336</v>
+        <v>0.06772213147095436</v>
       </c>
       <c r="F44">
-        <v>-0.05376438075769314</v>
+        <v>-0.1681958819177054</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02826421759615626</v>
+        <v>-0.02181721519495439</v>
       </c>
       <c r="C46">
-        <v>-0.005087763444491255</v>
+        <v>-0.004173197978072396</v>
       </c>
       <c r="D46">
-        <v>0.02063162234046761</v>
+        <v>-0.01134515886114991</v>
       </c>
       <c r="E46">
-        <v>0.03290025375387146</v>
+        <v>0.02334964149339833</v>
       </c>
       <c r="F46">
-        <v>-0.0005349082762189967</v>
+        <v>-2.649144549576054e-05</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03804303337006774</v>
+        <v>-0.05194117291152608</v>
       </c>
       <c r="C47">
-        <v>-0.03341397510684113</v>
+        <v>-0.003357507766559544</v>
       </c>
       <c r="D47">
-        <v>-0.001930843405446677</v>
+        <v>-0.01236211350067205</v>
       </c>
       <c r="E47">
-        <v>0.01324873813185726</v>
+        <v>0.02235328058680855</v>
       </c>
       <c r="F47">
-        <v>-0.002218617196657144</v>
+        <v>0.04502798452200232</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04278390502739755</v>
+        <v>-0.04806907253389864</v>
       </c>
       <c r="C48">
-        <v>-0.01863080747207642</v>
+        <v>-0.003287724486594061</v>
       </c>
       <c r="D48">
-        <v>-0.006143373685487103</v>
+        <v>-0.04732461794251566</v>
       </c>
       <c r="E48">
-        <v>0.02053146829572314</v>
+        <v>-0.004429829884668446</v>
       </c>
       <c r="F48">
-        <v>-0.02146007365113336</v>
+        <v>-0.01161411366417038</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.223121805485802</v>
+        <v>-0.2034010076401303</v>
       </c>
       <c r="C49">
-        <v>0.0299014896793812</v>
+        <v>-0.01743676527536264</v>
       </c>
       <c r="D49">
-        <v>-0.02034969969816511</v>
+        <v>0.01102252254127493</v>
       </c>
       <c r="E49">
-        <v>0.07329313183068592</v>
+        <v>0.0340222176566569</v>
       </c>
       <c r="F49">
-        <v>-0.2063920293895775</v>
+        <v>-0.03634526781171299</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03876563519366322</v>
+        <v>-0.04832346383708645</v>
       </c>
       <c r="C50">
-        <v>-0.02930222603720997</v>
+        <v>-0.0112386556890547</v>
       </c>
       <c r="D50">
-        <v>-0.02057718307783133</v>
+        <v>-0.02649371079356291</v>
       </c>
       <c r="E50">
-        <v>0.006256394372601718</v>
+        <v>0.02901508380466184</v>
       </c>
       <c r="F50">
-        <v>-0.01147589513240934</v>
+        <v>-0.009029893352695353</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01508645598633536</v>
+        <v>-0.00245042056160654</v>
       </c>
       <c r="C51">
-        <v>0.02195462809328842</v>
+        <v>-0.0006337058009433891</v>
       </c>
       <c r="D51">
-        <v>0.007817414136515708</v>
+        <v>0.002954022179620737</v>
       </c>
       <c r="E51">
-        <v>0.007898775009035588</v>
+        <v>-0.0004657067851704305</v>
       </c>
       <c r="F51">
-        <v>0.02211823660576962</v>
+        <v>-0.005655266868971612</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09634731834095363</v>
+        <v>-0.1447805534154694</v>
       </c>
       <c r="C52">
-        <v>-0.09017651454276908</v>
+        <v>-0.0135083668681817</v>
       </c>
       <c r="D52">
-        <v>-0.02647865040962761</v>
+        <v>-0.05180754179999359</v>
       </c>
       <c r="E52">
-        <v>0.02121283905140156</v>
+        <v>0.02321472195647089</v>
       </c>
       <c r="F52">
-        <v>0.07241556847888081</v>
+        <v>-0.03469844264836926</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1584459857611646</v>
+        <v>-0.1740360417520021</v>
       </c>
       <c r="C53">
-        <v>-0.04835783816786338</v>
+        <v>-0.01638559830355221</v>
       </c>
       <c r="D53">
-        <v>0.01213590002160663</v>
+        <v>-0.01233883725276281</v>
       </c>
       <c r="E53">
-        <v>0.04390104254021272</v>
+        <v>0.03571579037967981</v>
       </c>
       <c r="F53">
-        <v>0.09900715809700401</v>
+        <v>-0.06450035035447658</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05475753996778838</v>
+        <v>-0.02160646113136698</v>
       </c>
       <c r="C54">
-        <v>-0.06292517162577778</v>
+        <v>-0.01240449439686538</v>
       </c>
       <c r="D54">
-        <v>0.01190888799198547</v>
+        <v>-0.03432657527217201</v>
       </c>
       <c r="E54">
-        <v>0.0188565620665954</v>
+        <v>0.01565302391043383</v>
       </c>
       <c r="F54">
-        <v>0.02056945502851023</v>
+        <v>0.005093072758550087</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08885636258129205</v>
+        <v>-0.114375306701103</v>
       </c>
       <c r="C55">
-        <v>-0.04419424725141827</v>
+        <v>-0.01504371806289542</v>
       </c>
       <c r="D55">
-        <v>-0.02415531808962785</v>
+        <v>-0.01173318194153689</v>
       </c>
       <c r="E55">
-        <v>0.01395108021496792</v>
+        <v>0.03058448123735432</v>
       </c>
       <c r="F55">
-        <v>0.0549092113765812</v>
+        <v>-0.04620972746571618</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1572533746246282</v>
+        <v>-0.1777896778242126</v>
       </c>
       <c r="C56">
-        <v>-0.07682033008526437</v>
+        <v>-0.01377748796996286</v>
       </c>
       <c r="D56">
-        <v>-0.02961694290752997</v>
+        <v>-0.007776661882711015</v>
       </c>
       <c r="E56">
-        <v>0.0757236270942237</v>
+        <v>0.04028333872008864</v>
       </c>
       <c r="F56">
-        <v>0.0275785412323752</v>
+        <v>-0.04048183279448091</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04929653881887755</v>
+        <v>-0.04643218106708981</v>
       </c>
       <c r="C58">
-        <v>-0.04315101476852018</v>
+        <v>-0.002333946262595618</v>
       </c>
       <c r="D58">
-        <v>0.06651231895845046</v>
+        <v>-0.0641865038517108</v>
       </c>
       <c r="E58">
-        <v>0.03118969805050829</v>
+        <v>0.02221579780321341</v>
       </c>
       <c r="F58">
-        <v>-0.004012398627493751</v>
+        <v>0.04491222003294233</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1971152981526963</v>
+        <v>-0.1714992743862715</v>
       </c>
       <c r="C59">
-        <v>0.2384236948676092</v>
+        <v>-0.01606844997292585</v>
       </c>
       <c r="D59">
-        <v>-0.03373330817642423</v>
+        <v>0.2252436796310019</v>
       </c>
       <c r="E59">
-        <v>-0.02622617276619506</v>
+        <v>-0.04911285157187505</v>
       </c>
       <c r="F59">
-        <v>0.02495699537788949</v>
+        <v>0.03242189221773547</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2374330385672745</v>
+        <v>-0.2368954434615721</v>
       </c>
       <c r="C60">
-        <v>-0.08713151482225456</v>
+        <v>0.004036005134657582</v>
       </c>
       <c r="D60">
-        <v>-0.05874901465611664</v>
+        <v>-0.04800068673516912</v>
       </c>
       <c r="E60">
-        <v>0.1095167668050159</v>
+        <v>0.007709917195839119</v>
       </c>
       <c r="F60">
-        <v>-0.1148851038721185</v>
+        <v>0.03028780302303948</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.113348311361985</v>
+        <v>-0.08366516823391862</v>
       </c>
       <c r="C61">
-        <v>-0.07277993562208437</v>
+        <v>-0.01400462046919804</v>
       </c>
       <c r="D61">
-        <v>-0.1171395497502297</v>
+        <v>-0.1124379736863997</v>
       </c>
       <c r="E61">
-        <v>0.01621259635076948</v>
+        <v>0.04189461884675229</v>
       </c>
       <c r="F61">
-        <v>0.05969533757696921</v>
+        <v>-0.01697574390020923</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1529701575293564</v>
+        <v>-0.1704949553497958</v>
       </c>
       <c r="C62">
-        <v>-0.05457639276263353</v>
+        <v>-0.01777236820323683</v>
       </c>
       <c r="D62">
-        <v>0.005660422858092695</v>
+        <v>-0.01141356529434442</v>
       </c>
       <c r="E62">
-        <v>0.05846074075982516</v>
+        <v>0.03805226288280074</v>
       </c>
       <c r="F62">
-        <v>0.02417696705957847</v>
+        <v>-0.02162068809626179</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04319606531157449</v>
+        <v>-0.04295847535242756</v>
       </c>
       <c r="C63">
-        <v>-0.01983757582790776</v>
+        <v>-0.003551571525127392</v>
       </c>
       <c r="D63">
-        <v>-0.002078481720240322</v>
+        <v>-0.05059252623781098</v>
       </c>
       <c r="E63">
-        <v>-0.03002196045370998</v>
+        <v>0.0223463782044939</v>
       </c>
       <c r="F63">
-        <v>-0.02675664039900833</v>
+        <v>-0.008232228660901236</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09483440247198575</v>
+        <v>-0.11181186373971</v>
       </c>
       <c r="C64">
-        <v>-0.04762102525582535</v>
+        <v>-0.01195846990058182</v>
       </c>
       <c r="D64">
-        <v>-0.01648506008348122</v>
+        <v>-0.04251595279915633</v>
       </c>
       <c r="E64">
-        <v>0.06371213716656983</v>
+        <v>0.02133294360344678</v>
       </c>
       <c r="F64">
-        <v>0.01527183605795879</v>
+        <v>-0.02298152768825295</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1142704033150724</v>
+        <v>-0.144337597603027</v>
       </c>
       <c r="C65">
-        <v>-0.02050788444396094</v>
+        <v>-0.03117499694619843</v>
       </c>
       <c r="D65">
-        <v>-0.000147935147839919</v>
+        <v>0.04215905531799103</v>
       </c>
       <c r="E65">
-        <v>-0.06200643709776284</v>
+        <v>0.0005830813652275452</v>
       </c>
       <c r="F65">
-        <v>-0.01205936632833596</v>
+        <v>-0.04194758163432313</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1336585387941595</v>
+        <v>-0.1300727897339013</v>
       </c>
       <c r="C66">
-        <v>-0.1329489557743344</v>
+        <v>-0.01554514156152061</v>
       </c>
       <c r="D66">
-        <v>-0.1388809141686347</v>
+        <v>-0.1405971993520939</v>
       </c>
       <c r="E66">
-        <v>0.004742455342623042</v>
+        <v>0.06756493976960974</v>
       </c>
       <c r="F66">
-        <v>0.06653009874845422</v>
+        <v>-0.03566958143983096</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05702858609804265</v>
+        <v>-0.06258528538365432</v>
       </c>
       <c r="C67">
-        <v>-0.02440850294386784</v>
+        <v>-0.003513143173522582</v>
       </c>
       <c r="D67">
-        <v>0.03122918109037253</v>
+        <v>-0.05283298969239465</v>
       </c>
       <c r="E67">
-        <v>0.01085986744021712</v>
+        <v>0.0191112735383838</v>
       </c>
       <c r="F67">
-        <v>0.1018690062263996</v>
+        <v>0.03799694366736968</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.12204184114971</v>
+        <v>-0.115972942503384</v>
       </c>
       <c r="C68">
-        <v>0.2463653774675882</v>
+        <v>-0.02560700358019503</v>
       </c>
       <c r="D68">
-        <v>-0.02155898967575142</v>
+        <v>0.2643981161967295</v>
       </c>
       <c r="E68">
-        <v>-0.07080856941277877</v>
+        <v>-0.08655327100821075</v>
       </c>
       <c r="F68">
-        <v>0.01728466254929056</v>
+        <v>-0.03460261586863496</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03516912236639815</v>
+        <v>-0.03931658317073075</v>
       </c>
       <c r="C69">
-        <v>0.01571987781726986</v>
+        <v>-0.001081616742478036</v>
       </c>
       <c r="D69">
-        <v>0.008448530856378984</v>
+        <v>-0.009053124743263599</v>
       </c>
       <c r="E69">
-        <v>0.006147625306956402</v>
+        <v>0.02430086007236218</v>
       </c>
       <c r="F69">
-        <v>0.04569055804320692</v>
+        <v>0.01263970497493491</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03402543659451823</v>
+        <v>-0.06334555241644731</v>
       </c>
       <c r="C70">
-        <v>-0.01047201343031872</v>
+        <v>0.02773650904912331</v>
       </c>
       <c r="D70">
-        <v>-0.03988039734642538</v>
+        <v>-0.02703519020284301</v>
       </c>
       <c r="E70">
-        <v>0.01787647715791571</v>
+        <v>-0.04677480251186367</v>
       </c>
       <c r="F70">
-        <v>0.08052778344364102</v>
+        <v>0.2769436521407336</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1403521468121274</v>
+        <v>-0.135143900394717</v>
       </c>
       <c r="C71">
-        <v>0.2669578402078526</v>
+        <v>-0.02990192155231265</v>
       </c>
       <c r="D71">
-        <v>-0.01204697735155652</v>
+        <v>0.2801062882683512</v>
       </c>
       <c r="E71">
-        <v>-0.03383206368719452</v>
+        <v>-0.09529073405064638</v>
       </c>
       <c r="F71">
-        <v>0.04380417678785724</v>
+        <v>-0.04071386332364984</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1389471085795022</v>
+        <v>-0.1403010568270393</v>
       </c>
       <c r="C72">
-        <v>-0.01987784626835898</v>
+        <v>-0.0245812587030036</v>
       </c>
       <c r="D72">
-        <v>0.01902568345631661</v>
+        <v>-0.004449618191393602</v>
       </c>
       <c r="E72">
-        <v>0.007931444590582209</v>
+        <v>0.04486299923189045</v>
       </c>
       <c r="F72">
-        <v>0.02620335135352974</v>
+        <v>-0.02263433255262767</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2174737396301037</v>
+        <v>-0.2039925588127053</v>
       </c>
       <c r="C73">
-        <v>-0.02083652326677351</v>
+        <v>-0.0114395431092781</v>
       </c>
       <c r="D73">
-        <v>-0.09507383010566321</v>
+        <v>-0.01668720357431415</v>
       </c>
       <c r="E73">
-        <v>0.1390874758294839</v>
+        <v>0.06251022128159126</v>
       </c>
       <c r="F73">
-        <v>0.02390186428937228</v>
+        <v>-0.0372929046538534</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1224879605352143</v>
+        <v>-0.09429937948512668</v>
       </c>
       <c r="C74">
-        <v>-0.0866680285770456</v>
+        <v>-0.01213044794908435</v>
       </c>
       <c r="D74">
-        <v>-0.003311978270384016</v>
+        <v>-0.0216736378734805</v>
       </c>
       <c r="E74">
-        <v>0.02737304367487254</v>
+        <v>0.04807743895007703</v>
       </c>
       <c r="F74">
-        <v>0.06592561804730955</v>
+        <v>-0.0446330316990531</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1100303014173065</v>
+        <v>-0.1297513915948187</v>
       </c>
       <c r="C75">
-        <v>-0.06540778788199275</v>
+        <v>-0.02637470147369235</v>
       </c>
       <c r="D75">
-        <v>0.0005707373391223841</v>
+        <v>-0.03415586764860979</v>
       </c>
       <c r="E75">
-        <v>0.01933465777610036</v>
+        <v>0.06075275073868111</v>
       </c>
       <c r="F75">
-        <v>0.01926139871194704</v>
+        <v>-0.01361036273483536</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02584932490879071</v>
+        <v>-0.004121895260904285</v>
       </c>
       <c r="C76">
-        <v>0.0114800053086099</v>
+        <v>-0.0009604902678920823</v>
       </c>
       <c r="D76">
-        <v>-0.009684886147651674</v>
+        <v>0.002450745391548033</v>
       </c>
       <c r="E76">
-        <v>0.01899494827955021</v>
+        <v>0.001135017985754742</v>
       </c>
       <c r="F76">
-        <v>0.03116809577120463</v>
+        <v>-0.003845171750994456</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06456433317347653</v>
+        <v>-0.07899889136230109</v>
       </c>
       <c r="C77">
-        <v>-0.04666718778142834</v>
+        <v>-0.01025326212595978</v>
       </c>
       <c r="D77">
-        <v>-0.03515565509279098</v>
+        <v>-0.1127592410957713</v>
       </c>
       <c r="E77">
-        <v>0.04544640683535522</v>
+        <v>0.03776026226800124</v>
       </c>
       <c r="F77">
-        <v>-0.007431342418478795</v>
+        <v>-0.03683384281460851</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1199587525968121</v>
+        <v>-0.1056883533731049</v>
       </c>
       <c r="C78">
-        <v>-0.07681518900770296</v>
+        <v>-0.04177629748429993</v>
       </c>
       <c r="D78">
-        <v>0.2593044531605122</v>
+        <v>-0.1149826179034248</v>
       </c>
       <c r="E78">
-        <v>-0.1103673004289302</v>
+        <v>0.0815159718505156</v>
       </c>
       <c r="F78">
-        <v>-0.1263165380424155</v>
+        <v>-0.08084782224861538</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1296781197874953</v>
+        <v>-0.164624395154357</v>
       </c>
       <c r="C79">
-        <v>-0.05517603687899924</v>
+        <v>-0.02036987772580734</v>
       </c>
       <c r="D79">
-        <v>0.01183014070781923</v>
+        <v>-0.01936430492132503</v>
       </c>
       <c r="E79">
-        <v>0.04814729882930439</v>
+        <v>0.04964632537145214</v>
       </c>
       <c r="F79">
-        <v>-0.003596451431548451</v>
+        <v>-0.005953213560483396</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07682185717402801</v>
+        <v>-0.0802578355946731</v>
       </c>
       <c r="C80">
-        <v>-0.084556526831116</v>
+        <v>0.0004619405793028685</v>
       </c>
       <c r="D80">
-        <v>-0.07074889645785953</v>
+        <v>-0.05802051875826959</v>
       </c>
       <c r="E80">
-        <v>0.01359620930262733</v>
+        <v>0.0353624534690934</v>
       </c>
       <c r="F80">
-        <v>0.1768066596248964</v>
+        <v>0.01475403213693158</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1396961440766982</v>
+        <v>-0.123288858486548</v>
       </c>
       <c r="C81">
-        <v>-0.08696975115544171</v>
+        <v>-0.03037601641997388</v>
       </c>
       <c r="D81">
-        <v>-0.007353165443492532</v>
+        <v>-0.01854930006887588</v>
       </c>
       <c r="E81">
-        <v>0.04323461915691726</v>
+        <v>0.05973817402462087</v>
       </c>
       <c r="F81">
-        <v>0.003056782918769299</v>
+        <v>-0.005057895962280857</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1518266732401578</v>
+        <v>-0.1637151496126601</v>
       </c>
       <c r="C82">
-        <v>-0.07277685347365379</v>
+        <v>-0.02135236523596979</v>
       </c>
       <c r="D82">
-        <v>-0.01243051270165176</v>
+        <v>-0.01662444950112881</v>
       </c>
       <c r="E82">
-        <v>0.04620994556136069</v>
+        <v>0.03473257432682971</v>
       </c>
       <c r="F82">
-        <v>0.09532216871770091</v>
+        <v>-0.06269886421131041</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07946764485566615</v>
+        <v>-0.06322386032923884</v>
       </c>
       <c r="C83">
-        <v>-0.1397743842463502</v>
+        <v>-0.003516611573900793</v>
       </c>
       <c r="D83">
-        <v>0.02542007936833694</v>
+        <v>-0.04972316685343563</v>
       </c>
       <c r="E83">
-        <v>-0.0007940901540189064</v>
+        <v>0.005393923464282252</v>
       </c>
       <c r="F83">
-        <v>0.09185075378133768</v>
+        <v>0.04159860311391068</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05543738114081716</v>
+        <v>-0.0591643043326925</v>
       </c>
       <c r="C84">
-        <v>0.09553454195205767</v>
+        <v>-0.01127190846675839</v>
       </c>
       <c r="D84">
-        <v>-0.05695032211542612</v>
+        <v>-0.06356278045829819</v>
       </c>
       <c r="E84">
-        <v>-0.01003691379327835</v>
+        <v>0.001501246243718648</v>
       </c>
       <c r="F84">
-        <v>-0.1454572135898793</v>
+        <v>-0.0108442870173926</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1250107824349891</v>
+        <v>-0.1387946474085739</v>
       </c>
       <c r="C85">
-        <v>-0.05103992653602973</v>
+        <v>-0.02582927115752761</v>
       </c>
       <c r="D85">
-        <v>-0.01112108998679709</v>
+        <v>-0.0161039941754186</v>
       </c>
       <c r="E85">
-        <v>0.06259623083208138</v>
+        <v>0.04119629184282599</v>
       </c>
       <c r="F85">
-        <v>0.03645410056424413</v>
+        <v>-0.04524979139800762</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1097405499178842</v>
+        <v>-0.09698885274299242</v>
       </c>
       <c r="C86">
-        <v>0.001822398203397185</v>
+        <v>0.007044623432764248</v>
       </c>
       <c r="D86">
-        <v>-0.035107009838574</v>
+        <v>-0.02230348142729754</v>
       </c>
       <c r="E86">
-        <v>0.1362466554009572</v>
+        <v>0.1542721989692009</v>
       </c>
       <c r="F86">
-        <v>-0.7858215252110472</v>
+        <v>0.8662944975220561</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1120436608912959</v>
+        <v>-0.0986805823576426</v>
       </c>
       <c r="C87">
-        <v>-0.1128397089607394</v>
+        <v>-0.02510611673019708</v>
       </c>
       <c r="D87">
-        <v>0.03153662705437621</v>
+        <v>-0.07705164963975314</v>
       </c>
       <c r="E87">
-        <v>0.07939093529664418</v>
+        <v>-0.05395775035682604</v>
       </c>
       <c r="F87">
-        <v>-0.07227635572093248</v>
+        <v>-0.07920328345330997</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0513358489097067</v>
+        <v>-0.06126232236419499</v>
       </c>
       <c r="C88">
-        <v>-0.05027278886764994</v>
+        <v>-0.003024112280060665</v>
       </c>
       <c r="D88">
-        <v>-0.04248908283662371</v>
+        <v>-0.05368801164312063</v>
       </c>
       <c r="E88">
-        <v>0.02379966053145103</v>
+        <v>0.02766326395402664</v>
       </c>
       <c r="F88">
-        <v>0.04907300870052287</v>
+        <v>-0.008643648123716312</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.195107299143086</v>
+        <v>-0.1356229975834748</v>
       </c>
       <c r="C89">
-        <v>0.3634169828652336</v>
+        <v>-0.007976061246988438</v>
       </c>
       <c r="D89">
-        <v>0.05677961969218957</v>
+        <v>0.2586334610116593</v>
       </c>
       <c r="E89">
-        <v>-0.01975055093469507</v>
+        <v>-0.0912997561204861</v>
       </c>
       <c r="F89">
-        <v>0.05129611435074984</v>
+        <v>-0.02358881115906777</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.151442219368526</v>
+        <v>-0.1457886174416611</v>
       </c>
       <c r="C90">
-        <v>0.2538509782880353</v>
+        <v>-0.02526070280271963</v>
       </c>
       <c r="D90">
-        <v>-0.02707429765409471</v>
+        <v>0.2672723145956495</v>
       </c>
       <c r="E90">
-        <v>-0.0203618425110263</v>
+        <v>-0.1083300249899775</v>
       </c>
       <c r="F90">
-        <v>0.01756350004924948</v>
+        <v>-0.02359871121592005</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07802961870936032</v>
+        <v>-0.1185948228313699</v>
       </c>
       <c r="C91">
-        <v>-0.0403361497006155</v>
+        <v>-0.01670772305903538</v>
       </c>
       <c r="D91">
-        <v>-0.002411864228648716</v>
+        <v>0.007244266710287674</v>
       </c>
       <c r="E91">
-        <v>0.04274133959786826</v>
+        <v>0.05757910905377583</v>
       </c>
       <c r="F91">
-        <v>0.02119314589040485</v>
+        <v>0.02088114625279656</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1699721002221075</v>
+        <v>-0.1491286208924584</v>
       </c>
       <c r="C92">
-        <v>0.301303855803346</v>
+        <v>-0.01716231964905377</v>
       </c>
       <c r="D92">
-        <v>0.0294267834951707</v>
+        <v>0.2979734308915838</v>
       </c>
       <c r="E92">
-        <v>-0.03048346763752564</v>
+        <v>-0.103624954143335</v>
       </c>
       <c r="F92">
-        <v>0.05162032536142682</v>
+        <v>-0.01914807565549637</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1543742486140375</v>
+        <v>-0.1505962263296493</v>
       </c>
       <c r="C93">
-        <v>0.3157307156441602</v>
+        <v>-0.02189181015648296</v>
       </c>
       <c r="D93">
-        <v>-0.05808142874915675</v>
+        <v>0.2703980903496864</v>
       </c>
       <c r="E93">
-        <v>-0.02842872239810969</v>
+        <v>-0.07410890635648158</v>
       </c>
       <c r="F93">
-        <v>0.009673311187324901</v>
+        <v>-0.01672141456888038</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1336176295482679</v>
+        <v>-0.1331306811215214</v>
       </c>
       <c r="C94">
-        <v>-0.05861504141863524</v>
+        <v>-0.02379812289409035</v>
       </c>
       <c r="D94">
-        <v>0.02084173256308058</v>
+        <v>-0.04612065184437779</v>
       </c>
       <c r="E94">
-        <v>0.02961147868773173</v>
+        <v>0.06133938817224904</v>
       </c>
       <c r="F94">
-        <v>0.05145111559894815</v>
+        <v>-0.03147538243712759</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1172865932485715</v>
+        <v>-0.1256491087131337</v>
       </c>
       <c r="C95">
-        <v>-0.05312337819317952</v>
+        <v>-0.005396384959801116</v>
       </c>
       <c r="D95">
-        <v>0.009874817261010216</v>
+        <v>-0.09106562763286169</v>
       </c>
       <c r="E95">
-        <v>0.04135116066146034</v>
+        <v>0.0442986387716284</v>
       </c>
       <c r="F95">
-        <v>-0.09897605949997822</v>
+        <v>0.01268504218924531</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.008587705647346008</v>
+        <v>-0.09863937918390168</v>
       </c>
       <c r="C96">
-        <v>-0.003783710304737019</v>
+        <v>0.9889388400819152</v>
       </c>
       <c r="D96">
-        <v>0.004933911439134856</v>
+        <v>0.02773486443569131</v>
       </c>
       <c r="E96">
-        <v>-0.001479081062821596</v>
+        <v>0.05766352550557311</v>
       </c>
       <c r="F96">
-        <v>-0.02110230589987786</v>
+        <v>-0.04796672508774058</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1751371999494954</v>
+        <v>-0.1883273380280084</v>
       </c>
       <c r="C97">
-        <v>-0.1702228193416926</v>
+        <v>0.01101491025676522</v>
       </c>
       <c r="D97">
-        <v>0.1670764492433116</v>
+        <v>0.00737786455246789</v>
       </c>
       <c r="E97">
-        <v>-0.8825228597465217</v>
+        <v>0.01874873538557955</v>
       </c>
       <c r="F97">
-        <v>-0.1334939331004954</v>
+        <v>0.1741853276853922</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2385721116477113</v>
+        <v>-0.2053352767277393</v>
       </c>
       <c r="C98">
-        <v>-0.04646248827577475</v>
+        <v>-0.007058622022258311</v>
       </c>
       <c r="D98">
-        <v>0.08469929370863763</v>
+        <v>-0.01099712276387024</v>
       </c>
       <c r="E98">
-        <v>0.03095360354919437</v>
+        <v>-0.097876888494217</v>
       </c>
       <c r="F98">
-        <v>0.1492161102124176</v>
+        <v>0.1130772339346481</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05078315252596677</v>
+        <v>-0.05640581649917801</v>
       </c>
       <c r="C99">
-        <v>-0.004753712149615573</v>
+        <v>0.003790778222992461</v>
       </c>
       <c r="D99">
-        <v>0.003749404477268651</v>
+        <v>-0.03590567467928074</v>
       </c>
       <c r="E99">
-        <v>0.009632037172484101</v>
+        <v>0.02690811299309063</v>
       </c>
       <c r="F99">
-        <v>0.04525983193067228</v>
+        <v>-0.004687838448595731</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0262266857810734</v>
+        <v>-0.124309636551536</v>
       </c>
       <c r="C100">
-        <v>-0.06526836721430397</v>
+        <v>0.04945204965391243</v>
       </c>
       <c r="D100">
-        <v>-0.02658559660211979</v>
+        <v>-0.3449984237148088</v>
       </c>
       <c r="E100">
-        <v>-0.09769385596152826</v>
+        <v>-0.8953540591427425</v>
       </c>
       <c r="F100">
-        <v>0.2810998493480326</v>
+        <v>0.07821144666316279</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03472689594722711</v>
+        <v>-0.02690275876511252</v>
       </c>
       <c r="C101">
-        <v>-0.03044846545564153</v>
+        <v>-0.008828357002622253</v>
       </c>
       <c r="D101">
-        <v>-0.02980333475956614</v>
+        <v>-0.0308637543444588</v>
       </c>
       <c r="E101">
-        <v>0.03589515289332862</v>
+        <v>0.01143945477656249</v>
       </c>
       <c r="F101">
-        <v>0.02502811856542433</v>
+        <v>0.01444457675415077</v>
       </c>
     </row>
     <row r="102" spans="1:6">
